--- a/outputs/POMPANO3.xlsx
+++ b/outputs/POMPANO3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to obtain the necessary visa information to attend the conference. The "Visas and Travel" link under the "Attending" section is clearly labeled and directly relevant to Abi's goal. This aligns with Abi's comprehensive information processing style as it is a logical step to gather all required information for attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Abi may not immediately know to click "Attending" because there is a specific "Visas and Travel" link already visible on the page. Clicking "Attending" without clear indication that it will lead to visa information may not align with Abi's low confidence in unfamiliar computing tasks and preference for step-by-step guidance rather than tinkering.</t>
+Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident about what to do at this step without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: If Abi clicks "Attending," the dropdown menu clearly shows a "Visas and Travel Authorizations" option. This clear labeling will confirm to Abi that she is on the right track and making progress toward her goal of finding visa information. The structure of the menu provides a step-by-step process that aligns with Abi's comprehensive information processing style and motivation to accomplish her tasks.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu with a clear option labeled "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that she is making progress toward her goal and will know to click on the "Visas and Travel Authorizations" link to get the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visas and Travel Authorizations" option is clearly visible in the dropdown menu under "Attending." This clear labeling will guide Abi to click on it to find visa information, aligning with her motivation to accomplish her tasks and her preference for a comprehensive information processing style. The specific wording "Visas and Travel Authorizations" directly indicates that it will provide the needed information, making it clear what Abi should do next.</t>
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page specifically dedicated to visa information. The page provides detailed instructions and links to the Canadian government’s visa requirements and Electronic Travel Authorization (ETA) information. It also explains the process for obtaining a visa invitation letter. This comprehensive and clearly presented information will confirm to Abi that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which are relevant to her needs. Given Abi's motivation to attend the conference and her comprehensive information processing style, she will recognize that she is making progress toward her goal and will have access to the necessary information to proceed with her visa application.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section, which suggests it will provide additional details about the visa process. Abi is motivated to find visa information and the labeling is explicit, making it clear that clicking the "Visa Overview" link will likely provide the comprehensive information she needs. This aligns with her preference for gathering all necessary information systematically.</t>
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more detailed information about the visa requirements and process. The link is clearly labeled and directly relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely lengthy and dense with information. While it does contain relevant details, the sheer amount of text and the lack of clear organization can be overwhelming. Abi, who prefers a comprehensive but manageable amount of information, may find it difficult to process all the necessary details. This may lower her confidence in having made the right choice and in making progress toward her goal, as the information is not presented in a clear, concise, and easily digestible format.</t>
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and contains a large amount of detailed information. While comprehensive, the sheer volume of text can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the information to find what is specifically relevant to her situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The lack of clear, concise guidance could hinder her confidence in knowing she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO3.xlsx
+++ b/outputs/POMPANO3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,16 +426,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information as it is essential for her travel to the conference. The "Visas and Travel" link under the "Attending" section is clearly visible, which aligns with her comprehensive information processing style. She would consider looking for visa information as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The conference website is a logical place to find this information. Additionally, Abi's comprehensive information processing style means she would consider looking for all relevant details, including visa information, on the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" link is part of a dropdown menu, and it is not immediately clear that clicking "Attending" will lead to visa information. Abi might not feel confident about what to do next due to her low computer self-efficacy and preference for clear, step-by-step instructions. She might hesitate to click on "Attending" without more explicit guidance that it will help her find visa information.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Attending" section is clearly labeled and prominently displayed on the page. Given Abi's comprehensive information processing style, she would likely read through the available sections to find relevant information. Additionally, the term "Attending" is straightforward and intuitive, making it clear that it would contain information relevant to attendees, including visa information. This clarity helps mitigate any potential issues related to Abi's lower computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu with a clear option labeled "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. The presence of this specific option will confirm to Abi that she is making progress toward her goal and provide her with the necessary information. This clear and direct path aligns with her motivation and comprehensive information processing style.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Attending," Abi will see a dropdown menu with various options, including "Visas and Travel Authorizations." This clearly indicates that she is on the right track to finding the visa information she needs. The presence of this specific option in the dropdown menu provides immediate feedback that she is making progress toward her goal. The clear labeling and organization of the menu align with Abi's comprehensive information processing style and help mitigate any potential issues related to her lower computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. This directly aligns with Abi's goal of finding visa information. Given her motivation to find this information and her comprehensive information processing style, Abi will know that clicking on "Visas and Travel Authorizations" is the appropriate next step to achieve her subgoal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's comprehensive information processing style, she would read through the available options to find the relevant information. The term "Visas and Travel Authorizations" is straightforward and directly related to her goal of finding visa information. This clarity helps Abi understand what to do next, despite her lower computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which aligns with Abi's comprehensive information processing style. The clear and relevant information will confirm to Abi that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific sections such as "Arriving in Canada" and "Visa Invitation Letter," which are directly relevant to her needs. The information is clearly organized and comprehensive, aligning with Abi's information processing style. This clarity and detail will help Abi know that she is making progress toward her goal and provide her with the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visa Overview" link is clearly labeled and located under the "Arriving in Canada" section, which is relevant to Abi's goal of finding visa information. Given her motivation to obtain detailed visa information and her comprehensive information processing style, Abi will know that clicking on "Visa Overview" is the appropriate next step to gather more information about the visa requirements and process.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's comprehensive information processing style, she would read through the available information and recognize that clicking on "Visa Overview" would provide her with more detailed information about the visa requirements. The link is clearly labeled and directly relevant to her goal, making it easy for her to understand what to do next despite her lower computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is very long and contains a large amount of detailed information. While comprehensive, the sheer volume of text may be overwhelming for Abi, who has low computer self-efficacy. She might struggle to find the specific information she needs without feeling lost or frustrated. This could hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary visa information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 6. None of the Above
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the extensive amount of information to find what she specifically needs. Additionally, her lower computer self-efficacy might make her feel uncertain about whether she is on the right track, especially if the information is not clearly organized or if it requires a lot of scrolling and reading to find relevant details. The sheer volume of information could hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary information.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO3.xlsx
+++ b/outputs/POMPANO3.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The conference website is a logical place to find this information. Additionally, Abi's comprehensive information processing style means she would consider looking for all relevant details, including visa information, on the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
+Facets: 1.Motivation
+Why: ABI's goal is to find information about the visa, so it is in line with the subgoal</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Attending" section is clearly labeled and prominently displayed on the page. Given Abi's comprehensive information processing style, she would likely read through the available sections to find relevant information. Additionally, the term "Attending" is straightforward and intuitive, making it clear that it would contain information relevant to attendees, including visa information. This clarity helps mitigate any potential issues related to Abi's lower computer self-efficacy.</t>
+          <t>Answer: NO
+Facets: 5.Learning Style, 6.None of the above
+Why: There is no information on this page about what clicking the button might do. ABI will not tinker. Also, ABI is a bit scared of unfamiliar things, as per the computer self-efficacy facet</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi will see a dropdown menu with various options, including "Visas and Travel Authorizations." This clearly indicates that she is on the right track to finding the visa information she needs. The presence of this specific option in the dropdown menu provides immediate feedback that she is making progress toward her goal. The clear labeling and organization of the menu align with Abi's comprehensive information processing style and help mitigate any potential issues related to her lower computer self-efficacy.</t>
+Facets: 2.Information Processing Style, 3.Motivation
+Why: The page does provide some information about the travel grant which motivates Abi to do the action. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's comprehensive information processing style, she would read through the available options to find the relevant information. The term "Visas and Travel Authorizations" is straightforward and directly related to her goal of finding visa information. This clarity helps Abi understand what to do next, despite her lower computer self-efficacy.</t>
+Facets: 1.Motivation
+Why: ABI's goal is to find information about the visa. She has already taken a step toward it by clicking the attending button, so it is in line with the subgoal</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific sections such as "Arriving in Canada" and "Visa Invitation Letter," which are directly relevant to her needs. The information is clearly organized and comprehensive, aligning with Abi's information processing style. This clarity and detail will help Abi know that she is making progress toward her goal and provide her with the necessary information to proceed.</t>
+Facets: 1.Motivation, 2.Information Processing Style
+Why: The page does provide the visa information that Abi is looking for. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's comprehensive information processing style, she would read through the available information and recognize that clicking on "Visa Overview" would provide her with more detailed information about the visa requirements. The link is clearly labeled and directly relevant to her goal, making it easy for her to understand what to do next despite her lower computer self-efficacy.</t>
+Facets: 1.Motivation
+Why: ABI's goal is to find information about the visa, so it is in line with the subgoal</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 6. None of the Above
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the extensive amount of information to find what she specifically needs. Additionally, her lower computer self-efficacy might make her feel uncertain about whether she is on the right track, especially if the information is not clearly organized or if it requires a lot of scrolling and reading to find relevant details. The sheer volume of information could hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary information.</t>
+          <t>Answer: YES
+Facets: 1.Motivation, 2.Information Processing Style
+Why: The page does provide the visa information that Abi is looking for. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO3.xlsx
+++ b/outputs/POMPANO3.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivation
-Why: ABI's goal is to find information about the visa, so it is in line with the subgoal</t>
+Facets: 1. Motivations
+Why: Abi is motivated to attend the ICSE conference and, as a Chinese citizen living in the US, she would need to consider visa requirements. Looking for visa information on the conference website is a logical step toward achieving her goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 5.Learning Style, 6.None of the above
-Why: There is no information on this page about what clicking the button might do. ABI will not tinker. Also, ABI is a bit scared of unfamiliar things, as per the computer self-efficacy facet</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is likely to contain relevant information about attending the conference, including visa details. Abi, motivated to find visa information, would logically consider this section as a potential source. Her comprehensive information processing style would lead her to explore this option.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2.Information Processing Style, 3.Motivation
-Why: The page does provide some information about the travel grant which motivates Abi to do the action. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with "Visas and Travel Authorizations," which directly relates to her goal of finding visa information. This clear labeling confirms she is on the right track and making progress toward her goal. The information is organized in a way that aligns with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivation
-Why: ABI's goal is to find information about the visa. She has already taken a step toward it by clicking the attending button, so it is in line with the subgoal</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Visas and Travel Authorizations" option is clearly labeled in the dropdown menu, directly aligning with Abi's goal of finding visa information. Her motivation to attend the conference and her comprehensive information processing style will guide her to click on this option.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivation, 2.Information Processing Style
-Why: The page does provide the visa information that Abi is looking for. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page with detailed information about visa requirements and the process for obtaining a visa invitation letter. This confirms she is making progress toward her goal and provides the comprehensive information she needs, aligning with her motivations and information processing style.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivation
-Why: ABI's goal is to find information about the visa, so it is in line with the subgoal</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Visa Overview" link is clearly labeled and directly related to Abi's goal of understanding visa requirements. Her motivation to gather comprehensive information will guide her to click on this link to ensure she has all necessary details.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1.Motivation, 2.Information Processing Style
-Why: The page does provide the visa information that Abi is looking for. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might struggle with the volume and complexity, and her low computer self-efficacy could make it difficult for her to confidently extract the necessary details.</t>
         </is>
       </c>
     </row>
